--- a/Data/1. Odluka.xlsx
+++ b/Data/1. Odluka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngersak\Documents\Rstudio\HUSZPO_clanak-nasadi\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngersak\Documents\GitHub\HUSZPO_conference-article\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D50B92-B033-4683-8A41-41E8E2457424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DBD91-204F-49D0-A2EE-F20149AD36A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="587">
   <si>
     <t>GJ</t>
   </si>
@@ -259,9 +259,6 @@
     <t>d. 429/1</t>
   </si>
   <si>
-    <t>d. 2552/42, d.2623/5, d.2626/2, d.2663/2, d.2693/8, d.2792/4</t>
-  </si>
-  <si>
     <t>Marina</t>
   </si>
   <si>
@@ -436,9 +433,6 @@
     <t>Bročanac</t>
   </si>
   <si>
-    <t>9591/1-1, 10012</t>
-  </si>
-  <si>
     <t>9591/1-1</t>
   </si>
   <si>
@@ -1150,9 +1144,6 @@
     <t>Kalac</t>
   </si>
   <si>
-    <t>3567/91-18</t>
-  </si>
-  <si>
     <t>Pazin</t>
   </si>
   <si>
@@ -1771,23 +1762,44 @@
     <t>Gornja Vručica</t>
   </si>
   <si>
-    <t>d.1328/5, d.1459/1 ,1459/5, d 1459/6</t>
-  </si>
-  <si>
     <t>d.3922/1, d.3923, d.3925, 3927, 3928, 3929, d.3930, 3931, d.3934, 3935, 3936, 3924, d.3926, 3932, 3933, d.3941, d.3943, 3947</t>
   </si>
   <si>
-    <t>d.819/1A, 819/2</t>
-  </si>
-  <si>
     <t>608,612/1, d.612/3</t>
+  </si>
+  <si>
+    <t>d.1328/5, d.1459/1 ,1459/5, d.1459/6</t>
+  </si>
+  <si>
+    <t>d.2552/42, d.2623/5, d.2626/2, d.2663/2, d.2693/8, d.2792/4</t>
+  </si>
+  <si>
+    <t>9591/1-1 ne postoji</t>
+  </si>
+  <si>
+    <t>9591/11</t>
+  </si>
+  <si>
+    <t>9591/11, 10012</t>
+  </si>
+  <si>
+    <t>3567/91-18 ne postoji</t>
+  </si>
+  <si>
+    <t>3567/91</t>
+  </si>
+  <si>
+    <t>d.819/1A ne postoji</t>
+  </si>
+  <si>
+    <t>d.819/1, 819/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1816,6 +1828,11 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2242,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC737E25-0D3B-4509-950D-AE885B8B587F}">
   <dimension ref="A1:J277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="Q235" sqref="Q235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,34 +2276,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>345</v>
-      </c>
       <c r="H1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2306,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G2" s="24">
         <v>34.799999999999997</v>
@@ -2317,6 +2334,9 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2335,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G3" s="24">
         <v>4.55</v>
@@ -2422,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G6" s="25">
         <v>4.5599999999999996</v>
@@ -2567,7 +2587,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G11" s="26">
         <v>19.350000000000001</v>
@@ -2683,7 +2703,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G15" s="27">
         <v>33.53</v>
@@ -2712,7 +2732,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G16" s="27">
         <v>50.38</v>
@@ -2796,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F19" s="11">
         <v>1845</v>
@@ -2825,7 +2845,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F20" s="11">
         <v>1845</v>
@@ -2999,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>58</v>
@@ -3028,7 +3048,7 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>59</v>
@@ -3188,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -3217,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -3246,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -3275,12 +3295,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>65</v>
@@ -3304,12 +3324,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>65</v>
@@ -3321,7 +3341,7 @@
         <v>68</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>75</v>
+        <v>579</v>
       </c>
       <c r="G37" s="28">
         <v>46.43</v>
@@ -3333,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
@@ -3341,16 +3361,16 @@
         <v>64</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G38" s="29">
         <v>23.59</v>
@@ -3362,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
@@ -3370,16 +3390,16 @@
         <v>64</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="29">
         <v>22.3</v>
@@ -3391,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -3399,16 +3419,16 @@
         <v>64</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="29">
         <v>4.1100000000000003</v>
@@ -3420,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -3428,16 +3448,16 @@
         <v>64</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="E41" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" s="29">
         <v>3.08</v>
@@ -3449,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -3457,16 +3477,16 @@
         <v>64</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="29">
         <v>15.47</v>
@@ -3478,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -3486,16 +3506,16 @@
         <v>64</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="G43" s="29">
         <v>54.1</v>
@@ -3507,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -3515,16 +3535,16 @@
         <v>64</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" s="29">
         <v>7.43</v>
@@ -3536,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>64</v>
       </c>
@@ -3544,16 +3564,16 @@
         <v>64</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>134</v>
+        <v>582</v>
       </c>
       <c r="G45" s="29">
         <v>5.93</v>
@@ -3565,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>64</v>
       </c>
@@ -3573,16 +3593,16 @@
         <v>64</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>135</v>
+        <v>581</v>
       </c>
       <c r="G46" s="29">
         <v>7.27</v>
@@ -3593,8 +3613,11 @@
       <c r="I46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>64</v>
       </c>
@@ -3602,16 +3625,16 @@
         <v>64</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>135</v>
+        <v>581</v>
       </c>
       <c r="G47" s="29">
         <v>9.9</v>
@@ -3622,8 +3645,11 @@
       <c r="I47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -3631,16 +3657,16 @@
         <v>64</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="F48" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G48" s="29">
         <v>39.479999999999997</v>
@@ -3660,16 +3686,16 @@
         <v>64</v>
       </c>
       <c r="C49" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="G49" s="29">
         <v>7.67</v>
@@ -3689,13 +3715,13 @@
         <v>64</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F50" s="12">
         <v>3651</v>
@@ -3718,16 +3744,16 @@
         <v>64</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G51" s="29">
         <v>3.7</v>
@@ -3747,16 +3773,16 @@
         <v>64</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G52" s="29">
         <v>7.04</v>
@@ -3776,16 +3802,16 @@
         <v>64</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G53" s="29">
         <v>11.33</v>
@@ -3805,16 +3831,16 @@
         <v>64</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G54" s="29">
         <v>52.52</v>
@@ -3834,16 +3860,16 @@
         <v>64</v>
       </c>
       <c r="C55" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" s="29">
         <v>56.32</v>
@@ -3863,16 +3889,16 @@
         <v>64</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G56" s="29">
         <v>50</v>
@@ -3889,19 +3915,19 @@
         <v>64</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="F57" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G57" s="29">
         <v>4</v>
@@ -3918,19 +3944,19 @@
         <v>64</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D58" s="6">
         <v>1813</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="G58" s="29">
         <v>5</v>
@@ -3947,19 +3973,19 @@
         <v>64</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G59" s="29">
         <v>5</v>
@@ -3976,19 +4002,19 @@
         <v>64</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="G60" s="29">
         <v>5</v>
@@ -4005,19 +4031,19 @@
         <v>64</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="D61" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G61" s="29">
         <v>4</v>
@@ -4034,19 +4060,19 @@
         <v>64</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G62" s="29">
         <v>10</v>
@@ -4058,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4066,19 +4092,19 @@
         <v>64</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G63" s="29">
         <v>25</v>
@@ -4090,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4098,19 +4124,19 @@
         <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D64" s="6">
         <v>30</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G64" s="29">
         <v>43.17</v>
@@ -4127,19 +4153,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D65" s="6">
         <v>31</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G65" s="29">
         <v>42.27</v>
@@ -4156,19 +4182,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D66" s="6">
         <v>32</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G66" s="29">
         <v>103</v>
@@ -4185,19 +4211,19 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D67" s="6">
         <v>33</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G67" s="29">
         <v>103</v>
@@ -4214,19 +4240,19 @@
         <v>64</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G68" s="29">
         <v>103</v>
@@ -4243,19 +4269,19 @@
         <v>64</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G69" s="29">
         <v>103</v>
@@ -4272,19 +4298,19 @@
         <v>64</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="G70" s="29">
         <v>103</v>
@@ -4301,19 +4327,19 @@
         <v>64</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="E71" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G71" s="29">
         <v>103</v>
@@ -4330,19 +4356,19 @@
         <v>64</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F72" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="G72" s="29">
         <v>10</v>
@@ -4354,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4362,19 +4388,19 @@
         <v>64</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G73" s="29">
         <v>15</v>
@@ -4386,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4394,19 +4420,19 @@
         <v>64</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E74" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="G74" s="29">
         <v>1.65</v>
@@ -4423,19 +4449,19 @@
         <v>64</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G75" s="29">
         <v>4.5</v>
@@ -4452,19 +4478,19 @@
         <v>64</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G76" s="29">
         <v>2</v>
@@ -4481,19 +4507,19 @@
         <v>64</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="F77" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="G77" s="29">
         <v>4.5</v>
@@ -4510,19 +4536,19 @@
         <v>64</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="F78" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G78" s="29">
         <v>3</v>
@@ -4539,19 +4565,19 @@
         <v>64</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="E79" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G79" s="29">
         <v>4.25</v>
@@ -4571,19 +4597,19 @@
         <v>64</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G80" s="29">
         <v>19.75</v>
@@ -4603,19 +4629,19 @@
         <v>64</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G81" s="29">
         <v>10</v>
@@ -4635,19 +4661,19 @@
         <v>64</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="G82" s="29">
         <v>38.56</v>
@@ -4667,19 +4693,19 @@
         <v>64</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D83" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F83" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G83" s="29">
         <v>2</v>
@@ -4696,19 +4722,19 @@
         <v>64</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F84" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="G84" s="29">
         <v>8.4</v>
@@ -4725,19 +4751,19 @@
         <v>64</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C85" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="E85" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G85" s="29">
         <v>2.8</v>
@@ -4754,19 +4780,19 @@
         <v>64</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G86" s="29">
         <v>18.09</v>
@@ -4783,19 +4809,19 @@
         <v>64</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G87" s="29">
         <v>19.41</v>
@@ -4812,19 +4838,19 @@
         <v>64</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G88" s="29">
         <v>6.3</v>
@@ -4841,19 +4867,19 @@
         <v>64</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D89" s="6">
         <v>13</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G89" s="29">
         <v>3</v>
@@ -4870,19 +4896,19 @@
         <v>64</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="G90" s="30">
         <v>15</v>
@@ -4899,19 +4925,19 @@
         <v>64</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E91" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G91" s="30">
         <v>15</v>
@@ -4928,19 +4954,19 @@
         <v>64</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>55</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G92" s="30">
         <v>10</v>
@@ -4957,19 +4983,19 @@
         <v>64</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G93" s="30">
         <v>10</v>
@@ -4986,19 +5012,19 @@
         <v>64</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C94" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G94" s="30">
         <v>10</v>
@@ -5015,19 +5041,19 @@
         <v>64</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G95" s="30">
         <v>15</v>
@@ -5044,19 +5070,19 @@
         <v>64</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G96" s="30">
         <v>5</v>
@@ -5073,19 +5099,19 @@
         <v>64</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G97" s="30">
         <v>5</v>
@@ -5102,19 +5128,19 @@
         <v>64</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G98" s="30">
         <v>5</v>
@@ -5131,19 +5157,19 @@
         <v>64</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C99" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D99" s="15" t="s">
-        <v>196</v>
-      </c>
       <c r="E99" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G99" s="30">
         <v>5</v>
@@ -5160,19 +5186,19 @@
         <v>64</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G100" s="30">
         <v>5</v>
@@ -5189,19 +5215,19 @@
         <v>64</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G101" s="30">
         <v>5</v>
@@ -5218,19 +5244,19 @@
         <v>64</v>
       </c>
       <c r="B102" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>209</v>
-      </c>
       <c r="E102" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="G102" s="30">
         <v>5</v>
@@ -5242,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -5250,19 +5276,19 @@
         <v>64</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E103" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="G103" s="30">
         <v>5</v>
@@ -5279,19 +5305,19 @@
         <v>64</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E104" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="G104" s="30">
         <v>5</v>
@@ -5308,19 +5334,19 @@
         <v>64</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C105" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D105" s="15" t="s">
-        <v>210</v>
-      </c>
       <c r="E105" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="G105" s="30">
         <v>5</v>
@@ -5337,19 +5363,19 @@
         <v>64</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E106" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="G106" s="30">
         <v>5</v>
@@ -5366,19 +5392,19 @@
         <v>64</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G107" s="30">
         <v>5</v>
@@ -5395,19 +5421,19 @@
         <v>64</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G108" s="30">
         <v>5</v>
@@ -5424,19 +5450,19 @@
         <v>64</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G109" s="30">
         <v>5</v>
@@ -5453,19 +5479,19 @@
         <v>64</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D110" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E110" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="E110" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G110" s="30">
         <v>5</v>
@@ -5482,19 +5508,19 @@
         <v>64</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E111" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="G111" s="30">
         <v>5</v>
@@ -5511,19 +5537,19 @@
         <v>64</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E112" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="G112" s="30">
         <v>5</v>
@@ -5540,19 +5566,19 @@
         <v>64</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C113" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D113" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="E113" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="G113" s="30">
         <v>10</v>
@@ -5569,19 +5595,19 @@
         <v>64</v>
       </c>
       <c r="B114" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C114" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>209</v>
-      </c>
       <c r="E114" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="G114" s="30">
         <v>5</v>
@@ -5598,19 +5624,19 @@
         <v>64</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E115" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="G115" s="30">
         <v>5</v>
@@ -5627,19 +5653,19 @@
         <v>64</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G116" s="30">
         <v>5</v>
@@ -5656,19 +5682,19 @@
         <v>64</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D117" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E117" s="19" t="s">
-        <v>228</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G117" s="30">
         <v>5</v>
@@ -5685,19 +5711,19 @@
         <v>64</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G118" s="30">
         <v>5</v>
@@ -5714,19 +5740,19 @@
         <v>64</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>66</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G119" s="30">
         <v>5</v>
@@ -5743,19 +5769,19 @@
         <v>64</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G120" s="30">
         <v>5</v>
@@ -5772,19 +5798,19 @@
         <v>64</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G121" s="30">
         <v>5</v>
@@ -5801,19 +5827,19 @@
         <v>64</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C122" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D122" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="E122" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" s="30">
         <v>5</v>
@@ -5830,19 +5856,19 @@
         <v>64</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G123" s="30">
         <v>5</v>
@@ -5859,19 +5885,19 @@
         <v>64</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" s="30">
         <v>5</v>
@@ -5888,19 +5914,19 @@
         <v>64</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G125" s="30">
         <v>5</v>
@@ -5917,19 +5943,19 @@
         <v>64</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G126" s="30">
         <v>5</v>
@@ -5946,19 +5972,19 @@
         <v>64</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" s="30">
         <v>5</v>
@@ -5975,19 +6001,19 @@
         <v>64</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G128" s="30">
         <v>5</v>
@@ -6004,19 +6030,19 @@
         <v>64</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" s="30">
         <v>13.48</v>
@@ -6033,19 +6059,19 @@
         <v>64</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G130" s="30">
         <v>5</v>
@@ -6062,19 +6088,19 @@
         <v>64</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G131" s="30">
         <v>5</v>
@@ -6091,19 +6117,19 @@
         <v>64</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G132" s="30">
         <v>5</v>
@@ -6120,19 +6146,19 @@
         <v>64</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G133" s="30">
         <v>5</v>
@@ -6149,19 +6175,19 @@
         <v>64</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G134" s="30">
         <v>10</v>
@@ -6178,19 +6204,19 @@
         <v>64</v>
       </c>
       <c r="B135" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="F135" s="18" t="s">
         <v>252</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E135" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="F135" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="G135" s="27">
         <v>2.4900000000000002</v>
@@ -6207,19 +6233,19 @@
         <v>64</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D136" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="E136" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="G136" s="30">
         <v>5.52</v>
@@ -6236,19 +6262,19 @@
         <v>64</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G137" s="30">
         <v>13</v>
@@ -6265,19 +6291,19 @@
         <v>64</v>
       </c>
       <c r="B138" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="F138" s="18" t="s">
         <v>252</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="F138" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="G138" s="30">
         <v>7</v>
@@ -6294,19 +6320,19 @@
         <v>64</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D139" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="G139" s="30">
         <v>33.64</v>
@@ -6323,19 +6349,19 @@
         <v>64</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C140" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D140" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D140" s="15" t="s">
+      <c r="E140" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E140" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="G140" s="30">
         <v>15.26</v>
@@ -6352,19 +6378,19 @@
         <v>64</v>
       </c>
       <c r="B141" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D141" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="E141" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D141" s="15" t="s">
+      <c r="F141" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="G141" s="30">
         <v>9.3800000000000008</v>
@@ -6381,19 +6407,19 @@
         <v>64</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D142" s="19">
         <v>38</v>
       </c>
       <c r="E142" s="20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G142" s="30">
         <v>18.37</v>
@@ -6410,19 +6436,19 @@
         <v>64</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D143" s="15">
         <v>75</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G143" s="30">
         <v>63.32</v>
@@ -6439,19 +6465,19 @@
         <v>64</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D144" s="15">
         <v>58</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G144" s="30">
         <v>41.18</v>
@@ -6468,16 +6494,16 @@
         <v>64</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D145" s="15">
         <v>7</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F145" s="15">
         <v>1391</v>
@@ -6497,19 +6523,19 @@
         <v>64</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G146" s="30">
         <v>7.94</v>
@@ -6526,19 +6552,19 @@
         <v>64</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G147" s="30">
         <v>23</v>
@@ -6555,19 +6581,19 @@
         <v>64</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D148" s="15">
         <v>37</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G148" s="30">
         <v>54.2</v>
@@ -6584,19 +6610,19 @@
         <v>64</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D149" s="15">
         <v>38</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G149" s="30">
         <v>44.2</v>
@@ -6613,19 +6639,19 @@
         <v>64</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D150" s="21">
         <v>24</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G150" s="30">
         <v>60.94</v>
@@ -6642,19 +6668,19 @@
         <v>64</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D151" s="21">
         <v>25</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G151" s="30">
         <v>22.08</v>
@@ -6671,19 +6697,19 @@
         <v>64</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D152" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E152" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E152" s="21" t="s">
-        <v>291</v>
-      </c>
       <c r="F152" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G152" s="30">
         <v>22</v>
@@ -6700,16 +6726,16 @@
         <v>64</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C153" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E153" s="21" t="s">
         <v>292</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>294</v>
       </c>
       <c r="F153" s="15">
         <v>995</v>
@@ -6729,19 +6755,19 @@
         <v>64</v>
       </c>
       <c r="B154" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D154" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C154" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>297</v>
-      </c>
       <c r="E154" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G154" s="30">
         <v>4.91</v>
@@ -6758,19 +6784,19 @@
         <v>64</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E155" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F155" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" s="21" t="s">
-        <v>309</v>
       </c>
       <c r="G155" s="30">
         <v>9.67</v>
@@ -6787,19 +6813,19 @@
         <v>64</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C156" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D156" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D156" s="15" t="s">
-        <v>298</v>
-      </c>
       <c r="E156" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" s="30">
         <v>3.5</v>
@@ -6816,19 +6842,19 @@
         <v>64</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" s="30">
         <v>4.92</v>
@@ -6845,19 +6871,19 @@
         <v>64</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" s="30">
         <v>3.14</v>
@@ -6874,19 +6900,19 @@
         <v>64</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G159" s="30">
         <v>6.85</v>
@@ -6903,19 +6929,19 @@
         <v>64</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G160" s="30">
         <v>21.8</v>
@@ -6932,19 +6958,19 @@
         <v>64</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" s="30">
         <v>20</v>
@@ -6961,19 +6987,19 @@
         <v>64</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C162" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E162" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D162" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E162" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="F162" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G162" s="30">
         <v>9.4</v>
@@ -6990,19 +7016,19 @@
         <v>64</v>
       </c>
       <c r="B163" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D163" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="E163" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="F163" s="21" t="s">
         <v>316</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="F163" s="21" t="s">
-        <v>318</v>
       </c>
       <c r="G163" s="30">
         <v>20.7</v>
@@ -7019,19 +7045,19 @@
         <v>64</v>
       </c>
       <c r="B164" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D164" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C164" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="D164" s="15" t="s">
-        <v>316</v>
-      </c>
       <c r="E164" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G164" s="30">
         <v>20.7</v>
@@ -7048,19 +7074,19 @@
         <v>64</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C165" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D165" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D165" s="15" t="s">
+      <c r="E165" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" s="31" t="s">
         <v>323</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F165" s="31" t="s">
-        <v>325</v>
       </c>
       <c r="G165" s="30">
         <v>12.42</v>
@@ -7077,16 +7103,16 @@
         <v>64</v>
       </c>
       <c r="B166" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C166" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C166" s="15" t="s">
-        <v>322</v>
-      </c>
       <c r="D166" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F166" s="15">
         <v>193</v>
@@ -7106,16 +7132,16 @@
         <v>64</v>
       </c>
       <c r="B167" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C167" s="15" t="s">
-        <v>322</v>
-      </c>
       <c r="D167" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F167" s="15">
         <v>194</v>
@@ -7135,19 +7161,19 @@
         <v>64</v>
       </c>
       <c r="B168" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C168" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C168" s="15" t="s">
-        <v>322</v>
-      </c>
       <c r="D168" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" s="30">
         <v>252.1</v>
@@ -7164,19 +7190,19 @@
         <v>64</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G169" s="30">
         <v>133.11000000000001</v>
@@ -7193,19 +7219,19 @@
         <v>64</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C170" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="F170" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="D170" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>329</v>
       </c>
       <c r="G170" s="30">
         <v>13.41</v>
@@ -7222,19 +7248,19 @@
         <v>64</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F171" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G171" s="30">
         <v>85.78</v>
@@ -7251,19 +7277,19 @@
         <v>64</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E172" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G172" s="30">
         <v>131.08000000000001</v>
@@ -7277,22 +7303,22 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D173" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B173" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>335</v>
-      </c>
       <c r="E173" s="15" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F173" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G173" s="30">
         <v>61.88</v>
@@ -7306,22 +7332,22 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B174" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C174" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C174" s="15" t="s">
-        <v>334</v>
-      </c>
       <c r="D174" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="F174" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="E174" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="F174" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="G174" s="27">
         <v>46.11</v>
@@ -7335,20 +7361,20 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G175" s="30">
         <v>13.43</v>
@@ -7360,27 +7386,27 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C176" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="D176" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="C176" s="15" t="s">
+      <c r="E176" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="D176" s="15" t="s">
+      <c r="F176" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="E176" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="F176" s="22" t="s">
-        <v>361</v>
       </c>
       <c r="G176" s="30">
         <v>89.45</v>
@@ -7392,24 +7418,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D177" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B177" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="C177" s="15" t="s">
+      <c r="E177" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="D177" s="15" t="s">
+      <c r="F177" s="15" t="s">
         <v>364</v>
-      </c>
-      <c r="E177" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F177" s="15" t="s">
-        <v>366</v>
       </c>
       <c r="G177" s="30">
         <v>15.89</v>
@@ -7421,24 +7447,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E178" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F178" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G178" s="30">
         <v>25.92</v>
@@ -7450,24 +7476,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C179" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E179" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="D179" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>371</v>
-      </c>
       <c r="F179" s="15" t="s">
-        <v>372</v>
+        <v>584</v>
       </c>
       <c r="G179" s="30">
         <v>44.92</v>
@@ -7478,25 +7504,28 @@
       <c r="I179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J179" s="15" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B180" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E180" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="F180" s="22" t="s">
         <v>374</v>
-      </c>
-      <c r="D180" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="E180" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="F180" s="22" t="s">
-        <v>377</v>
       </c>
       <c r="G180" s="30">
         <v>2.16</v>
@@ -7508,24 +7537,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E181" s="15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F181" s="22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G181" s="30">
         <v>1.35</v>
@@ -7537,24 +7566,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C182" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="D182" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="D182" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="E182" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F182" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="F182" s="15" t="s">
-        <v>382</v>
       </c>
       <c r="G182" s="30">
         <v>1.31</v>
@@ -7566,24 +7595,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G183" s="30">
         <v>11.87</v>
@@ -7595,24 +7624,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B184" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="E184" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="F184" s="22" t="s">
         <v>386</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="E184" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="F184" s="22" t="s">
-        <v>389</v>
       </c>
       <c r="G184" s="30">
         <v>1.22</v>
@@ -7624,21 +7653,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C185" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D185" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D185" s="15" t="s">
-        <v>390</v>
-      </c>
       <c r="E185" s="15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F185" s="15">
         <v>454</v>
@@ -7653,24 +7682,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E186" s="15" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G186" s="30">
         <v>1.61</v>
@@ -7682,24 +7711,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E187" s="15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G187" s="30">
         <v>0.73</v>
@@ -7711,24 +7740,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E188" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G188" s="30">
         <v>0.64</v>
@@ -7740,24 +7769,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E189" s="15" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F189" s="22" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G189" s="30">
         <v>1.33</v>
@@ -7769,24 +7798,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E190" s="15" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F190" s="22" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G190" s="30">
         <v>1.9</v>
@@ -7798,24 +7827,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B191" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E191" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="C191" s="15" t="s">
+      <c r="F191" s="22" t="s">
         <v>406</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="E191" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="F191" s="22" t="s">
-        <v>409</v>
       </c>
       <c r="G191" s="30">
         <v>10</v>
@@ -7827,24 +7856,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E192" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G192" s="30">
         <v>2.36</v>
@@ -7858,22 +7887,22 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B193" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E193" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C193" s="15" t="s">
+      <c r="F193" s="22" t="s">
         <v>414</v>
-      </c>
-      <c r="D193" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E193" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="F193" s="22" t="s">
-        <v>417</v>
       </c>
       <c r="G193" s="30">
         <v>0.05</v>
@@ -7887,22 +7916,22 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B194" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E194" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C194" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D194" s="15" t="s">
+      <c r="F194" s="15" t="s">
         <v>415</v>
-      </c>
-      <c r="E194" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="F194" s="15" t="s">
-        <v>418</v>
       </c>
       <c r="G194" s="30">
         <v>0.05</v>
@@ -7916,19 +7945,19 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B195" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E195" s="15" t="s">
         <v>413</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D195" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E195" s="15" t="s">
-        <v>416</v>
       </c>
       <c r="F195" s="15">
         <v>1136</v>
@@ -7945,22 +7974,22 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B196" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E196" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C196" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D196" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E196" s="15" t="s">
+      <c r="F196" s="22" t="s">
         <v>416</v>
-      </c>
-      <c r="F196" s="22" t="s">
-        <v>419</v>
       </c>
       <c r="G196" s="30">
         <v>0.09</v>
@@ -7974,22 +8003,22 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B197" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E197" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C197" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D197" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E197" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="F197" s="22" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G197" s="30">
         <v>0.1</v>
@@ -8003,22 +8032,22 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B198" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E198" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C198" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D198" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E198" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="F198" s="22" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G198" s="30">
         <v>7.0000000000000001E-3</v>
@@ -8032,19 +8061,19 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E199" s="15" t="s">
         <v>413</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D199" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E199" s="15" t="s">
-        <v>416</v>
       </c>
       <c r="F199" s="15">
         <v>1140</v>
@@ -8061,22 +8090,22 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B200" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D200" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E200" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C200" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D200" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E200" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="F200" s="22" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G200" s="30">
         <v>0.43</v>
@@ -8090,22 +8119,22 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B201" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E201" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C201" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="F201" s="22" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G201" s="30">
         <v>0.11</v>
@@ -8119,22 +8148,22 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B202" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E202" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C202" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D202" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E202" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="F202" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G202" s="30">
         <v>0.16</v>
@@ -8148,22 +8177,22 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B203" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E203" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C203" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D203" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E203" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="F203" s="22" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G203" s="30">
         <v>0.36</v>
@@ -8177,22 +8206,22 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B204" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E204" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D204" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E204" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="F204" s="22" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G204" s="30">
         <v>1.02</v>
@@ -8206,22 +8235,22 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E205" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F205" s="15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G205" s="30">
         <v>0.31</v>
@@ -8235,19 +8264,19 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F206" s="15">
         <v>1516</v>
@@ -8264,19 +8293,19 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E207" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F207" s="15">
         <v>1518</v>
@@ -8293,22 +8322,22 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D208" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F208" s="15" t="s">
         <v>427</v>
-      </c>
-      <c r="E208" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="F208" s="15" t="s">
-        <v>430</v>
       </c>
       <c r="G208" s="30">
         <v>0.24</v>
@@ -8322,22 +8351,22 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E209" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F209" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="F209" s="15" t="s">
-        <v>431</v>
       </c>
       <c r="G209" s="30">
         <v>0.11</v>
@@ -8351,22 +8380,22 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E210" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F210" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G210" s="30">
         <v>0.33</v>
@@ -8380,22 +8409,22 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E211" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G211" s="30">
         <v>0.04</v>
@@ -8409,22 +8438,22 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E212" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F212" s="15" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G212" s="30">
         <v>0.2</v>
@@ -8438,19 +8467,19 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E213" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F213" s="15">
         <v>1555</v>
@@ -8467,19 +8496,19 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E214" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F214" s="15">
         <v>1601</v>
@@ -8496,19 +8525,19 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E215" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F215" s="15">
         <v>1609</v>
@@ -8525,19 +8554,19 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E216" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F216" s="15">
         <v>1612</v>
@@ -8554,22 +8583,22 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E217" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G217" s="30">
         <v>0.48</v>
@@ -8583,19 +8612,19 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E218" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F218" s="15">
         <v>1626</v>
@@ -8612,19 +8641,19 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E219" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F219" s="15">
         <v>1629</v>
@@ -8641,19 +8670,19 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E220" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F220" s="15">
         <v>1630</v>
@@ -8670,19 +8699,19 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E221" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F221" s="15">
         <v>1633</v>
@@ -8699,19 +8728,19 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E222" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F222" s="15">
         <v>1634</v>
@@ -8728,19 +8757,19 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E223" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F223" s="15">
         <v>1640</v>
@@ -8757,19 +8786,19 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E224" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F224" s="15">
         <v>1642</v>
@@ -8786,22 +8815,22 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E225" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F225" s="15" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G225" s="30">
         <v>0.71</v>
@@ -8815,22 +8844,22 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E226" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F226" s="15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G226" s="30">
         <v>0.42</v>
@@ -8844,22 +8873,22 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E227" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F227" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G227" s="30">
         <v>0.06</v>
@@ -8873,22 +8902,22 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E228" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F228" s="15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G228" s="30">
         <v>0.27</v>
@@ -8902,19 +8931,19 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E229" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F229" s="15">
         <v>1724</v>
@@ -8931,22 +8960,22 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E230" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F230" s="15" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G230" s="30">
         <v>0.35</v>
@@ -8960,22 +8989,22 @@
     </row>
     <row r="231" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E231" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F231" s="22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G231" s="30">
         <v>25.31</v>
@@ -8989,22 +9018,22 @@
     </row>
     <row r="232" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E232" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F232" s="22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G232" s="30">
         <v>2.0699999999999998</v>
@@ -9018,22 +9047,22 @@
     </row>
     <row r="233" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E233" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F233" s="22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G233" s="30">
         <v>0.97</v>
@@ -9047,22 +9076,22 @@
     </row>
     <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E234" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F234" s="22" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G234" s="30">
         <v>1.93</v>
@@ -9076,22 +9105,22 @@
     </row>
     <row r="235" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A235" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F235" s="22" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G235" s="30">
         <v>11.17</v>
@@ -9105,22 +9134,22 @@
     </row>
     <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E236" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F236" s="22" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G236" s="30">
         <v>0.97</v>
@@ -9134,22 +9163,22 @@
     </row>
     <row r="237" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A237" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F237" s="22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G237" s="30">
         <v>6.72</v>
@@ -9163,22 +9192,22 @@
     </row>
     <row r="238" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E238" s="15" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F238" s="22" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G238" s="30">
         <v>13.29</v>
@@ -9192,22 +9221,22 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E239" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="F239" s="22" t="s">
         <v>457</v>
-      </c>
-      <c r="F239" s="22" t="s">
-        <v>460</v>
       </c>
       <c r="G239" s="30">
         <v>1.1499999999999999</v>
@@ -9221,22 +9250,22 @@
     </row>
     <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E240" s="15" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F240" s="22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G240" s="30">
         <v>1.1200000000000001</v>
@@ -9250,22 +9279,22 @@
     </row>
     <row r="241" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E241" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F241" s="22" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G241" s="30">
         <v>2.92</v>
@@ -9279,22 +9308,22 @@
     </row>
     <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E242" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F242" s="22" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G242" s="30">
         <v>1.04</v>
@@ -9308,22 +9337,22 @@
     </row>
     <row r="243" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E243" s="15" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F243" s="22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G243" s="30">
         <v>10.61</v>
@@ -9335,27 +9364,27 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E244" s="15" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F244" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G244" s="30">
         <v>2.19</v>
@@ -9369,22 +9398,22 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E245" s="15" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F245" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G245" s="30">
         <v>8.01</v>
@@ -9398,22 +9427,22 @@
     </row>
     <row r="246" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E246" s="15" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F246" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G246" s="30">
         <v>3.62</v>
@@ -9427,22 +9456,22 @@
     </row>
     <row r="247" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E247" s="15" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F247" s="22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G247" s="30">
         <v>10.7</v>
@@ -9456,22 +9485,22 @@
     </row>
     <row r="248" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E248" s="15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F248" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G248" s="30">
         <v>1.3</v>
@@ -9485,22 +9514,22 @@
     </row>
     <row r="249" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E249" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F249" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G249" s="30">
         <v>16.329999999999998</v>
@@ -9512,27 +9541,27 @@
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E250" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="F250" s="22" t="s">
         <v>481</v>
-      </c>
-      <c r="F250" s="22" t="s">
-        <v>484</v>
       </c>
       <c r="G250" s="30">
         <v>4.34</v>
@@ -9546,22 +9575,22 @@
     </row>
     <row r="251" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E251" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F251" s="22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G251" s="30">
         <v>10.16</v>
@@ -9575,22 +9604,22 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E252" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F252" s="22" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G252" s="30">
         <v>0.88</v>
@@ -9604,22 +9633,22 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E253" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F253" s="22" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G253" s="30">
         <v>2.0499999999999998</v>
@@ -9633,22 +9662,22 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E254" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F254" s="22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G254" s="30">
         <v>1.84</v>
@@ -9662,22 +9691,22 @@
     </row>
     <row r="255" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D255" s="15" t="s">
         <v>55</v>
       </c>
       <c r="E255" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F255" s="22" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G255" s="30">
         <v>9.1999999999999993</v>
@@ -9691,22 +9720,22 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E256" s="15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F256" s="22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G256" s="30">
         <v>1.1599999999999999</v>
@@ -9720,22 +9749,22 @@
     </row>
     <row r="257" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E257" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F257" s="22" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G257" s="30">
         <v>14.95</v>
@@ -9747,27 +9776,27 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E258" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F258" s="22" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G258" s="30">
         <v>2.2200000000000002</v>
@@ -9779,27 +9808,27 @@
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B259" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D259" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="E259" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="F259" s="15" t="s">
         <v>500</v>
-      </c>
-      <c r="C259" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E259" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="F259" s="15" t="s">
-        <v>503</v>
       </c>
       <c r="G259" s="30">
         <v>21.75</v>
@@ -9813,22 +9842,22 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C260" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D260" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="D260" s="15" t="s">
-        <v>504</v>
-      </c>
       <c r="E260" s="15" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F260" s="15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G260" s="30">
         <v>12.9</v>
@@ -9842,22 +9871,22 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C261" s="22" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E261" s="15" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F261" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G261" s="30">
         <v>9.9</v>
@@ -9871,22 +9900,22 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C262" s="22" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E262" s="15" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F262" s="15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G262" s="30">
         <v>2.11</v>
@@ -9900,22 +9929,22 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C263" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E263" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F263" s="15" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G263" s="30">
         <v>8.86</v>
@@ -9929,22 +9958,22 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C264" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="D264" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="D264" s="22" t="s">
-        <v>512</v>
-      </c>
       <c r="E264" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F264" s="15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G264" s="30">
         <v>25.49</v>
@@ -9958,22 +9987,22 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E265" s="15" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F265" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G265" s="30">
         <v>0.62</v>
@@ -9987,22 +10016,22 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D266" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E266" s="15" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F266" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G266" s="30">
         <v>2.81</v>
@@ -10016,22 +10045,22 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D267" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E267" s="15" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F267" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G267" s="30">
         <v>1.79</v>
@@ -10045,19 +10074,19 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D268" s="22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E268" s="15" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F268" s="15">
         <v>706</v>
@@ -10074,22 +10103,22 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C269" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E269" s="15" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F269" s="15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G269" s="30">
         <v>0.18</v>
@@ -10103,22 +10132,22 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E270" s="15" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F270" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G270" s="30">
         <v>19.27</v>
@@ -10130,27 +10159,27 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D271" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="E271" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="C271" s="22" t="s">
+      <c r="F271" s="15" t="s">
         <v>525</v>
-      </c>
-      <c r="D271" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="E271" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="F271" s="15" t="s">
-        <v>528</v>
       </c>
       <c r="G271" s="30">
         <v>4.6500000000000004</v>
@@ -10164,22 +10193,22 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D272" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="E272" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="C272" s="22" t="s">
+      <c r="F272" s="15" t="s">
         <v>525</v>
-      </c>
-      <c r="D272" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="E272" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="F272" s="15" t="s">
-        <v>528</v>
       </c>
       <c r="G272" s="30">
         <v>6.52</v>
@@ -10193,22 +10222,22 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="D273" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="E273" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C273" s="22" t="s">
+      <c r="F273" s="15" t="s">
         <v>531</v>
-      </c>
-      <c r="D273" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="E273" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="F273" s="15" t="s">
-        <v>534</v>
       </c>
       <c r="G273" s="30">
         <v>4.38</v>
@@ -10222,22 +10251,22 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C274" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D274" s="22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E274" s="15" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F274" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G274" s="30">
         <v>1.94</v>
@@ -10251,22 +10280,22 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C275" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="D275" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="E275" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="F275" s="15" t="s">
         <v>538</v>
-      </c>
-      <c r="D275" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="E275" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="F275" s="15" t="s">
-        <v>541</v>
       </c>
       <c r="G275" s="30">
         <v>10.28</v>
@@ -10280,19 +10309,19 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D276" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="E276" s="15" t="s">
         <v>542</v>
-      </c>
-      <c r="C276" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="D276" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="E276" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="F276" s="15">
         <v>1517</v>
@@ -10309,22 +10338,22 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F277" s="15" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G277" s="30">
         <v>10.65</v>
@@ -10337,6 +10366,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
